--- a/运营数据/温州.xlsx
+++ b/运营数据/温州.xlsx
@@ -341,7 +341,7 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>GX20190719112332042</t>
+          <t>GX20190724150758491</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
@@ -350,20 +350,20 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>43665.47430555556</v>
+        <v>43670.62986111111</v>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>18720329475</t>
+          <t>13867421319</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>18720329475</t>
+          <t>13867421319</t>
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>43665.46597222222</v>
+        <v>43670.62847222222</v>
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
@@ -371,7 +371,7 @@
         </is>
       </c>
       <c r="H3" s="14" t="n">
-        <v>43666.46597222222</v>
+        <v>43671.62847222222</v>
       </c>
       <c r="I3" s="15" t="inlineStr">
         <is>
@@ -399,7 +399,7 @@
         </is>
       </c>
       <c r="N3" s="20" t="n">
-        <v>28.0</v>
+        <v>8.0</v>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
@@ -420,7 +420,7 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>GX20190716100106410</t>
+          <t>GX20190723170954046</t>
         </is>
       </c>
       <c r="B4" s="8" t="inlineStr">
@@ -429,20 +429,20 @@
         </is>
       </c>
       <c r="C4" s="9" t="n">
-        <v>43662.41736111111</v>
+        <v>43669.714583333334</v>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>18720329475</t>
+          <t>13806685936</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>18720329475</t>
+          <t>13806685936</t>
         </is>
       </c>
       <c r="F4" s="12" t="n">
-        <v>43662.40416666667</v>
+        <v>43669.71388888889</v>
       </c>
       <c r="G4" s="13" t="inlineStr">
         <is>
@@ -450,11 +450,11 @@
         </is>
       </c>
       <c r="H4" s="14" t="n">
-        <v>43663.40416666667</v>
+        <v>43679.71388888889</v>
       </c>
       <c r="I4" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J4" s="16" t="inlineStr">
@@ -469,20 +469,20 @@
       </c>
       <c r="L4" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞双擎</t>
         </is>
       </c>
       <c r="M4" s="19" t="inlineStr">
         <is>
-          <t>浙C75ZG9</t>
+          <t>苏A892HU</t>
         </is>
       </c>
       <c r="N4" s="20" t="n">
-        <v>258.0</v>
+        <v>3247.0</v>
       </c>
       <c r="O4" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P4" s="22" t="inlineStr">
@@ -499,7 +499,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>GX20190713104913213</t>
+          <t>GX20190723104924553</t>
         </is>
       </c>
       <c r="B5" s="8" t="inlineStr">
@@ -508,20 +508,20 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>43659.450694444444</v>
+        <v>43669.450694444444</v>
       </c>
       <c r="D5" s="10" t="inlineStr">
         <is>
-          <t>13968720082</t>
+          <t>13867421319</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>13968720082</t>
+          <t>13867421319</t>
         </is>
       </c>
       <c r="F5" s="12" t="n">
-        <v>43659.458333333336</v>
+        <v>43669.729166666664</v>
       </c>
       <c r="G5" s="13" t="inlineStr">
         <is>
@@ -529,11 +529,11 @@
         </is>
       </c>
       <c r="H5" s="14" t="n">
-        <v>43661.458333333336</v>
+        <v>43670.729166666664</v>
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J5" s="16" t="inlineStr">
@@ -553,11 +553,11 @@
       </c>
       <c r="M5" s="19" t="inlineStr">
         <is>
-          <t>浙C20XM9</t>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N5" s="20" t="n">
-        <v>386.0</v>
+        <v>8.0</v>
       </c>
       <c r="O5" s="21" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>GX20190627143827940</t>
+          <t>GX20190719112332042</t>
         </is>
       </c>
       <c r="B6" s="8" t="inlineStr">
@@ -587,32 +587,32 @@
         </is>
       </c>
       <c r="C6" s="9" t="n">
-        <v>43643.60972222222</v>
+        <v>43665.47430555556</v>
       </c>
       <c r="D6" s="10" t="inlineStr">
         <is>
-          <t>张志雄</t>
+          <t>18720329475</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>13602896858</t>
+          <t>18720329475</t>
         </is>
       </c>
       <c r="F6" s="12" t="n">
-        <v>43643.708333333336</v>
+        <v>43665.46597222222</v>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
-          <t>440103198211134854</t>
+          <t/>
         </is>
       </c>
       <c r="H6" s="14" t="n">
-        <v>43646.708333333336</v>
+        <v>43666.46597222222</v>
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J6" s="16" t="inlineStr">
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="N6" s="20" t="n">
-        <v>724.0</v>
+        <v>28.0</v>
       </c>
       <c r="O6" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P6" s="22" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GX20190622152630338</t>
+          <t>GX20190716100106410</t>
         </is>
       </c>
       <c r="B7" s="8" t="inlineStr">
@@ -666,20 +666,20 @@
         </is>
       </c>
       <c r="C7" s="9" t="n">
-        <v>43638.643055555556</v>
+        <v>43662.41736111111</v>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>刘振雷</t>
+          <t>18720329475</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>13676763068</t>
+          <t>18720329475</t>
         </is>
       </c>
       <c r="F7" s="12" t="n">
-        <v>43635.71875</v>
+        <v>43662.40416666667</v>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
@@ -687,11 +687,11 @@
         </is>
       </c>
       <c r="H7" s="14" t="n">
-        <v>43641.71875</v>
+        <v>43663.40416666667</v>
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J7" s="16" t="inlineStr">
@@ -715,11 +715,11 @@
         </is>
       </c>
       <c r="N7" s="20" t="n">
-        <v>882.0</v>
+        <v>258.0</v>
       </c>
       <c r="O7" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P7" s="22" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GX20190618150026148</t>
+          <t>GX20190713104913213</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -745,20 +745,20 @@
         </is>
       </c>
       <c r="C8" s="9" t="n">
-        <v>43634.625</v>
+        <v>43659.450694444444</v>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>刘振雷</t>
+          <t>13968720082</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>13676763068</t>
+          <t>13968720082</t>
         </is>
       </c>
       <c r="F8" s="12" t="n">
-        <v>43634.64861111111</v>
+        <v>43659.458333333336</v>
       </c>
       <c r="G8" s="13" t="inlineStr">
         <is>
@@ -766,11 +766,11 @@
         </is>
       </c>
       <c r="H8" s="14" t="n">
-        <v>43641.64861111111</v>
+        <v>43661.458333333336</v>
       </c>
       <c r="I8" s="15" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J8" s="16" t="inlineStr">
@@ -790,11 +790,11 @@
       </c>
       <c r="M8" s="19" t="inlineStr">
         <is>
-          <t>浙C709RH</t>
+          <t>浙C20XM9</t>
         </is>
       </c>
       <c r="N8" s="20" t="n">
-        <v>1200.0</v>
+        <v>386.0</v>
       </c>
       <c r="O8" s="21" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GX20190606161339694</t>
+          <t>GX20190627143827940</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -824,32 +824,32 @@
         </is>
       </c>
       <c r="C9" s="9" t="n">
-        <v>43622.67569444444</v>
+        <v>43643.60972222222</v>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>张志雄</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>148349650697</t>
+          <t>13602896858</t>
         </is>
       </c>
       <c r="F9" s="12" t="n">
-        <v>43622.67569444444</v>
+        <v>43643.708333333336</v>
       </c>
       <c r="G9" s="13" t="inlineStr">
         <is>
-          <t/>
+          <t>440103198211134854</t>
         </is>
       </c>
       <c r="H9" s="14" t="n">
-        <v>43626.67569444444</v>
+        <v>43646.708333333336</v>
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J9" s="16" t="inlineStr">
@@ -869,15 +869,15 @@
       </c>
       <c r="M9" s="19" t="inlineStr">
         <is>
-          <t>浙C709RH</t>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N9" s="20" t="n">
-        <v>1062.0</v>
+        <v>724.0</v>
       </c>
       <c r="O9" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已完成</t>
         </is>
       </c>
       <c r="P9" s="22" t="inlineStr">
@@ -894,7 +894,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GX20190605092203567</t>
+          <t>GX20190622152630338</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -903,20 +903,20 @@
         </is>
       </c>
       <c r="C10" s="9" t="n">
-        <v>43621.39027777778</v>
+        <v>43638.643055555556</v>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>13676442292</t>
+          <t>刘振雷</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>13676442292</t>
+          <t>13676763068</t>
         </is>
       </c>
       <c r="F10" s="12" t="n">
-        <v>43621.479166666664</v>
+        <v>43635.71875</v>
       </c>
       <c r="G10" s="13" t="inlineStr">
         <is>
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="14" t="n">
-        <v>43622.479166666664</v>
+        <v>43641.71875</v>
       </c>
       <c r="I10" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J10" s="16" t="inlineStr">
@@ -948,11 +948,11 @@
       </c>
       <c r="M10" s="19" t="inlineStr">
         <is>
-          <t>浙C709RH</t>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N10" s="20" t="n">
-        <v>208.0</v>
+        <v>882.0</v>
       </c>
       <c r="O10" s="21" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GX20190514162340072</t>
+          <t>GX20190618150026148</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
@@ -982,20 +982,20 @@
         </is>
       </c>
       <c r="C11" s="9" t="n">
-        <v>43599.68263888889</v>
+        <v>43634.625</v>
       </c>
       <c r="D11" s="10" t="inlineStr">
         <is>
-          <t>18858822186</t>
+          <t>刘振雷</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>18858822186</t>
+          <t>13676763068</t>
         </is>
       </c>
       <c r="F11" s="12" t="n">
-        <v>43595.68194444444</v>
+        <v>43634.64861111111</v>
       </c>
       <c r="G11" s="13" t="inlineStr">
         <is>
@@ -1003,11 +1003,11 @@
         </is>
       </c>
       <c r="H11" s="14" t="n">
-        <v>43598.68194444444</v>
+        <v>43641.64861111111</v>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J11" s="16" t="inlineStr">
@@ -1027,15 +1027,15 @@
       </c>
       <c r="M11" s="19" t="inlineStr">
         <is>
-          <t>浙C75ZG9</t>
+          <t>浙C709RH</t>
         </is>
       </c>
       <c r="N11" s="20" t="n">
-        <v>749.0</v>
+        <v>1200.0</v>
       </c>
       <c r="O11" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P11" s="22" t="inlineStr">
@@ -1052,7 +1052,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GX20190514140405079</t>
+          <t>GX20190606161339694</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -1061,42 +1061,42 @@
         </is>
       </c>
       <c r="C12" s="9" t="n">
-        <v>43599.58611111111</v>
+        <v>43622.67569444444</v>
       </c>
       <c r="D12" s="10" t="inlineStr">
         <is>
-          <t>13828462365</t>
+          <t>张三</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>13828462365</t>
+          <t>148349650697</t>
         </is>
       </c>
       <c r="F12" s="12" t="n">
-        <v>43599.6875</v>
+        <v>43622.67569444444</v>
       </c>
       <c r="G12" s="13" t="inlineStr">
         <is>
-          <t>420624198911031819</t>
+          <t/>
         </is>
       </c>
       <c r="H12" s="14" t="n">
-        <v>43600.6875</v>
+        <v>43626.67569444444</v>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J12" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田温州德丰汽车城店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="K12" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州德丰汽车城店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L12" s="18" t="inlineStr">
@@ -1104,17 +1104,17 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M12" s="19" t="inlineStr">
+        <is>
+          <t>浙C709RH</t>
         </is>
       </c>
       <c r="N12" s="20" t="n">
-        <v>188.0</v>
+        <v>1062.0</v>
       </c>
       <c r="O12" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P12" s="22" t="inlineStr">
@@ -1131,7 +1131,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GX20190509112615799</t>
+          <t>GX20190605092203567</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
@@ -1140,20 +1140,20 @@
         </is>
       </c>
       <c r="C13" s="9" t="n">
-        <v>43585.47638888889</v>
+        <v>43621.39027777778</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>刘荣开</t>
+          <t>13676442292</t>
         </is>
       </c>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>18267731637</t>
+          <t>13676442292</t>
         </is>
       </c>
       <c r="F13" s="12" t="n">
-        <v>43586.475694444445</v>
+        <v>43621.479166666664</v>
       </c>
       <c r="G13" s="13" t="inlineStr">
         <is>
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="H13" s="14" t="n">
-        <v>43589.475694444445</v>
+        <v>43622.479166666664</v>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J13" s="16" t="inlineStr">
@@ -1175,25 +1175,25 @@
       </c>
       <c r="K13" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州天信灵溪店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L13" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M13" s="19" t="inlineStr">
         <is>
-          <t>浙C54DG9</t>
+          <t>浙C709RH</t>
         </is>
       </c>
       <c r="N13" s="20" t="n">
-        <v>850.0</v>
+        <v>208.0</v>
       </c>
       <c r="O13" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P13" s="22" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GX20190509105214849</t>
+          <t>GX20190514162340072</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -1219,20 +1219,20 @@
         </is>
       </c>
       <c r="C14" s="9" t="n">
-        <v>43585.45277777778</v>
+        <v>43599.68263888889</v>
       </c>
       <c r="D14" s="10" t="inlineStr">
         <is>
-          <t>汤小和</t>
+          <t>18858822186</t>
         </is>
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>13758860712</t>
+          <t>18858822186</t>
         </is>
       </c>
       <c r="F14" s="12" t="n">
-        <v>43586.450694444444</v>
+        <v>43595.68194444444</v>
       </c>
       <c r="G14" s="13" t="inlineStr">
         <is>
@@ -1240,11 +1240,11 @@
         </is>
       </c>
       <c r="H14" s="14" t="n">
-        <v>43591.450694444444</v>
+        <v>43598.68194444444</v>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J14" s="16" t="inlineStr">
@@ -1254,21 +1254,21 @@
       </c>
       <c r="K14" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州天信灵溪店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L14" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M14" s="19" t="inlineStr">
         <is>
-          <t>浙C029PC</t>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N14" s="20" t="n">
-        <v>1442.0</v>
+        <v>749.0</v>
       </c>
       <c r="O14" s="21" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GX20190509113713986</t>
+          <t>GX20190514140405079</t>
         </is>
       </c>
       <c r="B15" s="8" t="inlineStr">
@@ -1298,28 +1298,28 @@
         </is>
       </c>
       <c r="C15" s="9" t="n">
-        <v>43583.48402777778</v>
+        <v>43599.58611111111</v>
       </c>
       <c r="D15" s="10" t="inlineStr">
         <is>
-          <t>刘艳茹</t>
+          <t>13828462365</t>
         </is>
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>13587897620</t>
+          <t>13828462365</t>
         </is>
       </c>
       <c r="F15" s="12" t="n">
-        <v>43584.48333333333</v>
+        <v>43599.6875</v>
       </c>
       <c r="G15" s="13" t="inlineStr">
         <is>
-          <t/>
+          <t>420624198911031819</t>
         </is>
       </c>
       <c r="H15" s="14" t="n">
-        <v>43585.48333333333</v>
+        <v>43600.6875</v>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
@@ -1328,12 +1328,12 @@
       </c>
       <c r="J15" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田温州浙通机场路店</t>
+          <t>广汽丰田温州德丰汽车城店</t>
         </is>
       </c>
       <c r="K15" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州浙通机场路店</t>
+          <t>广汽丰田温州德丰汽车城店</t>
         </is>
       </c>
       <c r="L15" s="18" t="inlineStr">
@@ -1341,9 +1341,9 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M15" s="19" t="inlineStr">
-        <is>
-          <t>浙C75ZG9</t>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N15" s="20" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="O15" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P15" s="22" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GX20190509120106060</t>
+          <t>GX20190509112615799</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -1377,20 +1377,20 @@
         </is>
       </c>
       <c r="C16" s="9" t="n">
-        <v>43580.50069444445</v>
+        <v>43585.47638888889</v>
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>陈琼瑶</t>
+          <t>刘荣开</t>
         </is>
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>15057796253</t>
+          <t>18267731637</t>
         </is>
       </c>
       <c r="F16" s="12" t="n">
-        <v>43581.5</v>
+        <v>43586.475694444445</v>
       </c>
       <c r="G16" s="13" t="inlineStr">
         <is>
@@ -1398,11 +1398,11 @@
         </is>
       </c>
       <c r="H16" s="14" t="n">
-        <v>43582.5</v>
+        <v>43589.475694444445</v>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J16" s="16" t="inlineStr">
@@ -1412,21 +1412,21 @@
       </c>
       <c r="K16" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州浙通机场路店</t>
+          <t>广汽丰田温州天信灵溪店</t>
         </is>
       </c>
       <c r="L16" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M16" s="19" t="inlineStr">
         <is>
-          <t>浙C75ZG9</t>
+          <t>浙C54DG9</t>
         </is>
       </c>
       <c r="N16" s="20" t="n">
-        <v>213.0</v>
+        <v>850.0</v>
       </c>
       <c r="O16" s="21" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>GX20190509115053182</t>
+          <t>GX20190509105214849</t>
         </is>
       </c>
       <c r="B17" s="8" t="inlineStr">
@@ -1456,20 +1456,20 @@
         </is>
       </c>
       <c r="C17" s="9" t="n">
-        <v>43580.493055555555</v>
+        <v>43585.45277777778</v>
       </c>
       <c r="D17" s="10" t="inlineStr">
         <is>
-          <t>周可西</t>
+          <t>汤小和</t>
         </is>
       </c>
       <c r="E17" s="11" t="inlineStr">
         <is>
-          <t>15888758596</t>
+          <t>13758860712</t>
         </is>
       </c>
       <c r="F17" s="12" t="n">
-        <v>43581.493055555555</v>
+        <v>43586.450694444444</v>
       </c>
       <c r="G17" s="13" t="inlineStr">
         <is>
@@ -1477,11 +1477,11 @@
         </is>
       </c>
       <c r="H17" s="14" t="n">
-        <v>43584.493055555555</v>
+        <v>43591.450694444444</v>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J17" s="16" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="K17" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州统邦瓯北店</t>
+          <t>广汽丰田温州天信灵溪店</t>
         </is>
       </c>
       <c r="L17" s="18" t="inlineStr">
@@ -1501,11 +1501,11 @@
       </c>
       <c r="M17" s="19" t="inlineStr">
         <is>
-          <t>浙C54DG9</t>
+          <t>浙C029PC</t>
         </is>
       </c>
       <c r="N17" s="20" t="n">
-        <v>758.0</v>
+        <v>1442.0</v>
       </c>
       <c r="O17" s="21" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>GX20190509113409137</t>
+          <t>GX20190509113713986</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -1535,20 +1535,20 @@
         </is>
       </c>
       <c r="C18" s="9" t="n">
-        <v>43579.481944444444</v>
+        <v>43583.48402777778</v>
       </c>
       <c r="D18" s="10" t="inlineStr">
         <is>
-          <t>蔡国强</t>
+          <t>刘艳茹</t>
         </is>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>15867702880</t>
+          <t>13587897620</t>
         </is>
       </c>
       <c r="F18" s="12" t="n">
-        <v>43580.48125</v>
+        <v>43584.48333333333</v>
       </c>
       <c r="G18" s="13" t="inlineStr">
         <is>
@@ -1556,11 +1556,11 @@
         </is>
       </c>
       <c r="H18" s="14" t="n">
-        <v>43583.48125</v>
+        <v>43585.48333333333</v>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J18" s="16" t="inlineStr">
@@ -1570,21 +1570,21 @@
       </c>
       <c r="K18" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州统邦瓯北店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L18" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M18" s="19" t="inlineStr">
         <is>
-          <t>浙C029PC</t>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N18" s="20" t="n">
-        <v>729.0</v>
+        <v>188.0</v>
       </c>
       <c r="O18" s="21" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>GX20190510164948427</t>
+          <t>GX20190509120106060</t>
         </is>
       </c>
       <c r="B19" s="8" t="inlineStr">
@@ -1614,20 +1614,20 @@
         </is>
       </c>
       <c r="C19" s="9" t="n">
-        <v>43578.700694444444</v>
+        <v>43580.50069444445</v>
       </c>
       <c r="D19" s="10" t="inlineStr">
         <is>
-          <t>周天牛</t>
+          <t>陈琼瑶</t>
         </is>
       </c>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>13515877577</t>
+          <t>15057796253</t>
         </is>
       </c>
       <c r="F19" s="12" t="n">
-        <v>43579.7</v>
+        <v>43581.5</v>
       </c>
       <c r="G19" s="13" t="inlineStr">
         <is>
@@ -1635,11 +1635,11 @@
         </is>
       </c>
       <c r="H19" s="14" t="n">
-        <v>43585.7</v>
+        <v>43582.5</v>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J19" s="16" t="inlineStr">
@@ -1654,20 +1654,20 @@
       </c>
       <c r="L19" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t/>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M19" s="19" t="inlineStr">
+        <is>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N19" s="20" t="n">
-        <v>1131.2</v>
+        <v>213.0</v>
       </c>
       <c r="O19" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已完成</t>
         </is>
       </c>
       <c r="P19" s="22" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>GX20190509115640327</t>
+          <t>GX20190509115053182</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
@@ -1693,20 +1693,20 @@
         </is>
       </c>
       <c r="C20" s="9" t="n">
-        <v>43578.49722222222</v>
+        <v>43580.493055555555</v>
       </c>
       <c r="D20" s="10" t="inlineStr">
         <is>
-          <t>邓林春</t>
+          <t>周可西</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>15869410563</t>
+          <t>15888758596</t>
         </is>
       </c>
       <c r="F20" s="12" t="n">
-        <v>43579.49722222222</v>
+        <v>43581.493055555555</v>
       </c>
       <c r="G20" s="13" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="H20" s="14" t="n">
-        <v>43582.49722222222</v>
+        <v>43584.493055555555</v>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
@@ -1728,21 +1728,21 @@
       </c>
       <c r="K20" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州德丰汽车城店</t>
+          <t>广汽丰田温州统邦瓯北店</t>
         </is>
       </c>
       <c r="L20" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M20" s="19" t="inlineStr">
         <is>
-          <t>浙C709RH</t>
+          <t>浙C54DG9</t>
         </is>
       </c>
       <c r="N20" s="20" t="n">
-        <v>699.0</v>
+        <v>758.0</v>
       </c>
       <c r="O20" s="21" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>GX20190509113216325</t>
+          <t>GX20190509113409137</t>
         </is>
       </c>
       <c r="B21" s="8" t="inlineStr">
@@ -1772,20 +1772,20 @@
         </is>
       </c>
       <c r="C21" s="9" t="n">
-        <v>43576.48055555556</v>
+        <v>43579.481944444444</v>
       </c>
       <c r="D21" s="10" t="inlineStr">
         <is>
-          <t>郑志敏</t>
+          <t>蔡国强</t>
         </is>
       </c>
       <c r="E21" s="11" t="inlineStr">
         <is>
-          <t>18850334024</t>
+          <t>15867702880</t>
         </is>
       </c>
       <c r="F21" s="12" t="n">
-        <v>43577.47986111111</v>
+        <v>43580.48125</v>
       </c>
       <c r="G21" s="13" t="inlineStr">
         <is>
@@ -1793,11 +1793,11 @@
         </is>
       </c>
       <c r="H21" s="14" t="n">
-        <v>43579.47986111111</v>
+        <v>43583.48125</v>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J21" s="16" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K21" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州天信灵溪店</t>
+          <t>广汽丰田温州统邦瓯北店</t>
         </is>
       </c>
       <c r="L21" s="18" t="inlineStr">
@@ -1817,11 +1817,11 @@
       </c>
       <c r="M21" s="19" t="inlineStr">
         <is>
-          <t>浙C54DG9</t>
+          <t>浙C029PC</t>
         </is>
       </c>
       <c r="N21" s="20" t="n">
-        <v>454.0</v>
+        <v>729.0</v>
       </c>
       <c r="O21" s="21" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>GX20190509113050044</t>
+          <t>GX20190510164948427</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="C22" s="9" t="n">
-        <v>43574.479166666664</v>
+        <v>43578.700694444444</v>
       </c>
       <c r="D22" s="10" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="F22" s="12" t="n">
-        <v>43575.479166666664</v>
+        <v>43579.7</v>
       </c>
       <c r="G22" s="13" t="inlineStr">
         <is>
@@ -1872,11 +1872,11 @@
         </is>
       </c>
       <c r="H22" s="14" t="n">
-        <v>43578.479166666664</v>
+        <v>43585.7</v>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J22" s="16" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="K22" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田瑞安新盛塘下店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L22" s="18" t="inlineStr">
@@ -1894,17 +1894,17 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M22" s="19" t="inlineStr">
-        <is>
-          <t>浙C029PC</t>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N22" s="20" t="n">
-        <v>587.2</v>
+        <v>1131.2</v>
       </c>
       <c r="O22" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P22" s="22" t="inlineStr">
@@ -1921,7 +1921,7 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>GX20190509114811920</t>
+          <t>GX20190509115640327</t>
         </is>
       </c>
       <c r="B23" s="8" t="inlineStr">
@@ -1930,20 +1930,20 @@
         </is>
       </c>
       <c r="C23" s="9" t="n">
-        <v>43573.49166666667</v>
+        <v>43578.49722222222</v>
       </c>
       <c r="D23" s="10" t="inlineStr">
         <is>
-          <t>付淼东</t>
+          <t>邓林春</t>
         </is>
       </c>
       <c r="E23" s="11" t="inlineStr">
         <is>
-          <t>18658391632</t>
+          <t>15869410563</t>
         </is>
       </c>
       <c r="F23" s="12" t="n">
-        <v>43574.49097222222</v>
+        <v>43579.49722222222</v>
       </c>
       <c r="G23" s="13" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="H23" s="14" t="n">
-        <v>43577.49097222222</v>
+        <v>43582.49722222222</v>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="K23" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田瑞安新盛塘下店</t>
+          <t>广汽丰田温州德丰汽车城店</t>
         </is>
       </c>
       <c r="L23" s="18" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="M23" s="19" t="inlineStr">
         <is>
-          <t>浙C75ZG9</t>
+          <t>浙C709RH</t>
         </is>
       </c>
       <c r="N23" s="20" t="n">
-        <v>599.0</v>
+        <v>699.0</v>
       </c>
       <c r="O23" s="21" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>GX20190509115906557</t>
+          <t>GX20190509113216325</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
@@ -2009,20 +2009,20 @@
         </is>
       </c>
       <c r="C24" s="9" t="n">
-        <v>43572.49930555555</v>
+        <v>43576.48055555556</v>
       </c>
       <c r="D24" s="10" t="inlineStr">
         <is>
-          <t>胡章淇</t>
+          <t>郑志敏</t>
         </is>
       </c>
       <c r="E24" s="11" t="inlineStr">
         <is>
-          <t>1507253787</t>
+          <t>18850334024</t>
         </is>
       </c>
       <c r="F24" s="12" t="n">
-        <v>43573.498611111114</v>
+        <v>43577.47986111111</v>
       </c>
       <c r="G24" s="13" t="inlineStr">
         <is>
@@ -2030,11 +2030,11 @@
         </is>
       </c>
       <c r="H24" s="14" t="n">
-        <v>43577.498611111114</v>
+        <v>43579.47986111111</v>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J24" s="16" t="inlineStr">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="K24" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州统邦瓯北店</t>
+          <t>广汽丰田温州天信灵溪店</t>
         </is>
       </c>
       <c r="L24" s="18" t="inlineStr">
@@ -2052,17 +2052,17 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M24" s="19" t="inlineStr">
+        <is>
+          <t>浙C54DG9</t>
         </is>
       </c>
       <c r="N24" s="20" t="n">
-        <v>975.0</v>
+        <v>454.0</v>
       </c>
       <c r="O24" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已完成</t>
         </is>
       </c>
       <c r="P24" s="22" t="inlineStr">
@@ -2079,7 +2079,7 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>GX20190509113619345</t>
+          <t>GX20190509113050044</t>
         </is>
       </c>
       <c r="B25" s="8" t="inlineStr">
@@ -2088,20 +2088,20 @@
         </is>
       </c>
       <c r="C25" s="9" t="n">
-        <v>43572.48333333333</v>
+        <v>43574.479166666664</v>
       </c>
       <c r="D25" s="10" t="inlineStr">
         <is>
-          <t>方一鸣</t>
+          <t>周天牛</t>
         </is>
       </c>
       <c r="E25" s="11" t="inlineStr">
         <is>
-          <t>13695742635</t>
+          <t>13515877577</t>
         </is>
       </c>
       <c r="F25" s="12" t="n">
-        <v>43573.48263888889</v>
+        <v>43575.479166666664</v>
       </c>
       <c r="G25" s="13" t="inlineStr">
         <is>
@@ -2109,11 +2109,11 @@
         </is>
       </c>
       <c r="H25" s="14" t="n">
-        <v>43577.48263888889</v>
+        <v>43578.479166666664</v>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J25" s="16" t="inlineStr">
@@ -2123,21 +2123,21 @@
       </c>
       <c r="K25" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州浙通机场路店</t>
+          <t>广汽丰田瑞安新盛塘下店</t>
         </is>
       </c>
       <c r="L25" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M25" s="19" t="inlineStr">
         <is>
-          <t>浙C20XM9</t>
+          <t>浙C029PC</t>
         </is>
       </c>
       <c r="N25" s="20" t="n">
-        <v>767.0</v>
+        <v>587.2</v>
       </c>
       <c r="O25" s="21" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>GX20190509115459333</t>
+          <t>GX20190509114811920</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
@@ -2167,20 +2167,20 @@
         </is>
       </c>
       <c r="C26" s="9" t="n">
-        <v>43571.495833333334</v>
+        <v>43573.49166666667</v>
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>谢托</t>
+          <t>付淼东</t>
         </is>
       </c>
       <c r="E26" s="11" t="inlineStr">
         <is>
-          <t>13676417625</t>
+          <t>18658391632</t>
         </is>
       </c>
       <c r="F26" s="12" t="n">
-        <v>43572.495833333334</v>
+        <v>43574.49097222222</v>
       </c>
       <c r="G26" s="13" t="inlineStr">
         <is>
@@ -2188,11 +2188,11 @@
         </is>
       </c>
       <c r="H26" s="14" t="n">
-        <v>43577.495833333334</v>
+        <v>43577.49097222222</v>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J26" s="16" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="K26" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州天信灵溪店</t>
+          <t>广汽丰田瑞安新盛塘下店</t>
         </is>
       </c>
       <c r="L26" s="18" t="inlineStr">
@@ -2212,11 +2212,11 @@
       </c>
       <c r="M26" s="19" t="inlineStr">
         <is>
-          <t>浙C709RH</t>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N26" s="20" t="n">
-        <v>935.0</v>
+        <v>599.0</v>
       </c>
       <c r="O26" s="21" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>GX20190509112728686</t>
+          <t>GX20190509115906557</t>
         </is>
       </c>
       <c r="B27" s="8" t="inlineStr">
@@ -2246,20 +2246,20 @@
         </is>
       </c>
       <c r="C27" s="9" t="n">
-        <v>43571.47708333333</v>
+        <v>43572.49930555555</v>
       </c>
       <c r="D27" s="10" t="inlineStr">
         <is>
-          <t>刘克文</t>
+          <t>胡章淇</t>
         </is>
       </c>
       <c r="E27" s="11" t="inlineStr">
         <is>
-          <t>13676402545</t>
+          <t>1507253787</t>
         </is>
       </c>
       <c r="F27" s="12" t="n">
-        <v>43572.47638888889</v>
+        <v>43573.498611111114</v>
       </c>
       <c r="G27" s="13" t="inlineStr">
         <is>
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="H27" s="14" t="n">
-        <v>43574.47638888889</v>
+        <v>43577.498611111114</v>
       </c>
       <c r="I27" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J27" s="16" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="K27" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州浙通机场路店</t>
+          <t>广汽丰田温州统邦瓯北店</t>
         </is>
       </c>
       <c r="L27" s="18" t="inlineStr">
@@ -2289,17 +2289,17 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M27" s="19" t="inlineStr">
-        <is>
-          <t>浙C029PC</t>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N27" s="20" t="n">
-        <v>454.0</v>
+        <v>975.0</v>
       </c>
       <c r="O27" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P27" s="22" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>GX20190509114648749</t>
+          <t>GX20190509113619345</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
@@ -2325,20 +2325,20 @@
         </is>
       </c>
       <c r="C28" s="9" t="n">
-        <v>43569.490277777775</v>
+        <v>43572.48333333333</v>
       </c>
       <c r="D28" s="10" t="inlineStr">
         <is>
-          <t>周兴林</t>
+          <t>方一鸣</t>
         </is>
       </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
-          <t>13767359771</t>
+          <t>13695742635</t>
         </is>
       </c>
       <c r="F28" s="12" t="n">
-        <v>43570.490277777775</v>
+        <v>43573.48263888889</v>
       </c>
       <c r="G28" s="13" t="inlineStr">
         <is>
@@ -2346,11 +2346,11 @@
         </is>
       </c>
       <c r="H28" s="14" t="n">
-        <v>43573.490277777775</v>
+        <v>43577.48263888889</v>
       </c>
       <c r="I28" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J28" s="16" t="inlineStr">
@@ -2365,16 +2365,16 @@
       </c>
       <c r="L28" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M28" s="19" t="inlineStr">
         <is>
-          <t>浙C54DG9</t>
+          <t>浙C20XM9</t>
         </is>
       </c>
       <c r="N28" s="20" t="n">
-        <v>821.0</v>
+        <v>767.0</v>
       </c>
       <c r="O28" s="21" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>GX20190509114558609</t>
+          <t>GX20190509115459333</t>
         </is>
       </c>
       <c r="B29" s="8" t="inlineStr">
@@ -2404,20 +2404,20 @@
         </is>
       </c>
       <c r="C29" s="9" t="n">
-        <v>43566.489583333336</v>
+        <v>43571.495833333334</v>
       </c>
       <c r="D29" s="10" t="inlineStr">
         <is>
-          <t>陈东明</t>
+          <t>谢托</t>
         </is>
       </c>
       <c r="E29" s="11" t="inlineStr">
         <is>
-          <t>18875819861</t>
+          <t>13676417625</t>
         </is>
       </c>
       <c r="F29" s="12" t="n">
-        <v>43567.489583333336</v>
+        <v>43572.495833333334</v>
       </c>
       <c r="G29" s="13" t="inlineStr">
         <is>
@@ -2425,11 +2425,11 @@
         </is>
       </c>
       <c r="H29" s="14" t="n">
-        <v>43569.489583333336</v>
+        <v>43577.495833333334</v>
       </c>
       <c r="I29" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J29" s="16" t="inlineStr">
@@ -2439,21 +2439,21 @@
       </c>
       <c r="K29" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州统邦瓯北店</t>
+          <t>广汽丰田温州天信灵溪店</t>
         </is>
       </c>
       <c r="L29" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M29" s="19" t="inlineStr">
         <is>
-          <t>浙C029PC</t>
+          <t>浙C709RH</t>
         </is>
       </c>
       <c r="N29" s="20" t="n">
-        <v>512.0</v>
+        <v>935.0</v>
       </c>
       <c r="O29" s="21" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>GX20190509115758270</t>
+          <t>GX20190509112728686</t>
         </is>
       </c>
       <c r="B30" s="8" t="inlineStr">
@@ -2483,20 +2483,20 @@
         </is>
       </c>
       <c r="C30" s="9" t="n">
-        <v>43564.49791666667</v>
+        <v>43571.47708333333</v>
       </c>
       <c r="D30" s="10" t="inlineStr">
         <is>
-          <t>王丹</t>
+          <t>刘克文</t>
         </is>
       </c>
       <c r="E30" s="11" t="inlineStr">
         <is>
-          <t>15057766695</t>
+          <t>13676402545</t>
         </is>
       </c>
       <c r="F30" s="12" t="n">
-        <v>43565.49791666667</v>
+        <v>43572.47638888889</v>
       </c>
       <c r="G30" s="13" t="inlineStr">
         <is>
@@ -2504,11 +2504,11 @@
         </is>
       </c>
       <c r="H30" s="14" t="n">
-        <v>43568.49791666667</v>
+        <v>43574.47638888889</v>
       </c>
       <c r="I30" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J30" s="16" t="inlineStr">
@@ -2518,21 +2518,21 @@
       </c>
       <c r="K30" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州天信灵溪店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L30" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M30" s="19" t="inlineStr">
         <is>
-          <t>浙C75ZG9</t>
+          <t>浙C029PC</t>
         </is>
       </c>
       <c r="N30" s="20" t="n">
-        <v>549.0</v>
+        <v>454.0</v>
       </c>
       <c r="O30" s="21" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>GX20190509111508247</t>
+          <t>GX20190509114648749</t>
         </is>
       </c>
       <c r="B31" s="8" t="inlineStr">
@@ -2562,20 +2562,20 @@
         </is>
       </c>
       <c r="C31" s="9" t="n">
-        <v>43564.46875</v>
+        <v>43569.490277777775</v>
       </c>
       <c r="D31" s="10" t="inlineStr">
         <is>
-          <t>方一鸣</t>
+          <t>周兴林</t>
         </is>
       </c>
       <c r="E31" s="11" t="inlineStr">
         <is>
-          <t>13695742635</t>
+          <t>13767359771</t>
         </is>
       </c>
       <c r="F31" s="12" t="n">
-        <v>43565.46805555555</v>
+        <v>43570.490277777775</v>
       </c>
       <c r="G31" s="13" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="H31" s="14" t="n">
-        <v>43568.46805555555</v>
+        <v>43573.490277777775</v>
       </c>
       <c r="I31" s="15" t="inlineStr">
         <is>
@@ -2597,21 +2597,21 @@
       </c>
       <c r="K31" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田乐清广通乐成店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L31" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M31" s="19" t="inlineStr">
         <is>
-          <t>浙C20XM9</t>
+          <t>浙C54DG9</t>
         </is>
       </c>
       <c r="N31" s="20" t="n">
-        <v>549.0</v>
+        <v>821.0</v>
       </c>
       <c r="O31" s="21" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>GX20190509112847718</t>
+          <t>GX20190509114558609</t>
         </is>
       </c>
       <c r="B32" s="8" t="inlineStr">
@@ -2641,20 +2641,20 @@
         </is>
       </c>
       <c r="C32" s="9" t="n">
-        <v>43563.47777777778</v>
+        <v>43566.489583333336</v>
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>池建进</t>
+          <t>陈东明</t>
         </is>
       </c>
       <c r="E32" s="11" t="inlineStr">
         <is>
-          <t>15158585971</t>
+          <t>18875819861</t>
         </is>
       </c>
       <c r="F32" s="12" t="n">
-        <v>43564.47777777778</v>
+        <v>43567.489583333336</v>
       </c>
       <c r="G32" s="13" t="inlineStr">
         <is>
@@ -2662,11 +2662,11 @@
         </is>
       </c>
       <c r="H32" s="14" t="n">
-        <v>43567.47777777778</v>
+        <v>43569.489583333336</v>
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J32" s="16" t="inlineStr">
@@ -2681,16 +2681,16 @@
       </c>
       <c r="L32" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M32" s="19" t="inlineStr">
         <is>
-          <t>浙C709RH</t>
+          <t>浙C029PC</t>
         </is>
       </c>
       <c r="N32" s="20" t="n">
-        <v>674.0</v>
+        <v>512.0</v>
       </c>
       <c r="O32" s="21" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>GX20190509113313059</t>
+          <t>GX20190509115758270</t>
         </is>
       </c>
       <c r="B33" s="8" t="inlineStr">
@@ -2720,20 +2720,20 @@
         </is>
       </c>
       <c r="C33" s="9" t="n">
-        <v>43558.48125</v>
+        <v>43564.49791666667</v>
       </c>
       <c r="D33" s="10" t="inlineStr">
         <is>
-          <t>钟优亮</t>
+          <t>王丹</t>
         </is>
       </c>
       <c r="E33" s="11" t="inlineStr">
         <is>
-          <t>18334086042</t>
+          <t>15057766695</t>
         </is>
       </c>
       <c r="F33" s="12" t="n">
-        <v>43559.48055555556</v>
+        <v>43565.49791666667</v>
       </c>
       <c r="G33" s="13" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="H33" s="14" t="n">
-        <v>43562.48055555556</v>
+        <v>43568.49791666667</v>
       </c>
       <c r="I33" s="15" t="inlineStr">
         <is>
@@ -2755,21 +2755,21 @@
       </c>
       <c r="K33" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州浙通机场路店</t>
+          <t>广汽丰田温州天信灵溪店</t>
         </is>
       </c>
       <c r="L33" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M33" s="19" t="inlineStr">
         <is>
-          <t>浙C54DG9</t>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N33" s="20" t="n">
-        <v>729.0</v>
+        <v>549.0</v>
       </c>
       <c r="O33" s="21" t="inlineStr">
         <is>
@@ -2790,77 +2790,314 @@
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
         <is>
+          <t>GX20190509111508247</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>43564.46875</v>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
+        <is>
+          <t>方一鸣</t>
+        </is>
+      </c>
+      <c r="E34" s="11" t="inlineStr">
+        <is>
+          <t>13695742635</t>
+        </is>
+      </c>
+      <c r="F34" s="12" t="n">
+        <v>43565.46805555555</v>
+      </c>
+      <c r="G34" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H34" s="14" t="n">
+        <v>43568.46805555555</v>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J34" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K34" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田乐清广通乐成店</t>
+        </is>
+      </c>
+      <c r="L34" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M34" s="19" t="inlineStr">
+        <is>
+          <t>浙C20XM9</t>
+        </is>
+      </c>
+      <c r="N34" s="20" t="n">
+        <v>549.0</v>
+      </c>
+      <c r="O34" s="21" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="P34" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q34" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>GX20190509112847718</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>43563.47777777778</v>
+      </c>
+      <c r="D35" s="10" t="inlineStr">
+        <is>
+          <t>池建进</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr">
+        <is>
+          <t>15158585971</t>
+        </is>
+      </c>
+      <c r="F35" s="12" t="n">
+        <v>43564.47777777778</v>
+      </c>
+      <c r="G35" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H35" s="14" t="n">
+        <v>43567.47777777778</v>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J35" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K35" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田温州统邦瓯北店</t>
+        </is>
+      </c>
+      <c r="L35" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M35" s="19" t="inlineStr">
+        <is>
+          <t>浙C709RH</t>
+        </is>
+      </c>
+      <c r="N35" s="20" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="O35" s="21" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="P35" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q35" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>GX20190509113313059</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>43558.48125</v>
+      </c>
+      <c r="D36" s="10" t="inlineStr">
+        <is>
+          <t>钟优亮</t>
+        </is>
+      </c>
+      <c r="E36" s="11" t="inlineStr">
+        <is>
+          <t>18334086042</t>
+        </is>
+      </c>
+      <c r="F36" s="12" t="n">
+        <v>43559.48055555556</v>
+      </c>
+      <c r="G36" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>43562.48055555556</v>
+      </c>
+      <c r="I36" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J36" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K36" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="L36" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M36" s="19" t="inlineStr">
+        <is>
+          <t>浙C54DG9</t>
+        </is>
+      </c>
+      <c r="N36" s="20" t="n">
+        <v>729.0</v>
+      </c>
+      <c r="O36" s="21" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="P36" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q36" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
           <t>GX20190509105513805</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>短租</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="n">
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="n">
         <v>43556.45486111111</v>
       </c>
-      <c r="D34" s="10" t="inlineStr">
+      <c r="D37" s="10" t="inlineStr">
         <is>
           <t>程健峰</t>
         </is>
       </c>
-      <c r="E34" s="11" t="inlineStr">
+      <c r="E37" s="11" t="inlineStr">
         <is>
           <t>18958895570</t>
         </is>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F37" s="12" t="n">
         <v>43557.45416666667</v>
       </c>
-      <c r="G34" s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H34" s="14" t="n">
+      <c r="G37" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H37" s="14" t="n">
         <v>43559.45416666667</v>
       </c>
-      <c r="I34" s="15" t="inlineStr">
+      <c r="I37" s="15" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="J34" s="16" t="inlineStr">
-        <is>
-          <t>广汽丰田温州浙通机场路店</t>
-        </is>
-      </c>
-      <c r="K34" s="17" t="inlineStr">
+      <c r="J37" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K37" s="17" t="inlineStr">
         <is>
           <t>广汽丰田温州天信灵溪店</t>
         </is>
       </c>
-      <c r="L34" s="18" t="inlineStr">
+      <c r="L37" s="18" t="inlineStr">
         <is>
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N34" s="20" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N37" s="20" t="n">
         <v>454.0</v>
       </c>
-      <c r="O34" s="21" t="inlineStr">
+      <c r="O37" s="21" t="inlineStr">
         <is>
           <t>已取消</t>
         </is>
       </c>
-      <c r="P34" s="22" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q34" s="23" t="inlineStr">
+      <c r="P37" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q37" s="23" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/运营数据/温州.xlsx
+++ b/运营数据/温州.xlsx
@@ -341,7 +341,7 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>GX20190724150758491</t>
+          <t>GX20190801084911147</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
@@ -350,20 +350,20 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>43670.62986111111</v>
+        <v>43678.36736111111</v>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>13867421319</t>
+          <t>陈国宋</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>13867421319</t>
+          <t>13968855998</t>
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>43670.62847222222</v>
+        <v>43678.38888888889</v>
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
@@ -371,11 +371,11 @@
         </is>
       </c>
       <c r="H3" s="14" t="n">
-        <v>43671.62847222222</v>
+        <v>43680.38888888889</v>
       </c>
       <c r="I3" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J3" s="16" t="inlineStr">
@@ -390,20 +390,20 @@
       </c>
       <c r="L3" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞双擎</t>
         </is>
       </c>
       <c r="M3" s="19" t="inlineStr">
         <is>
-          <t>浙C75ZG9</t>
+          <t>苏A567EK</t>
         </is>
       </c>
       <c r="N3" s="20" t="n">
-        <v>8.0</v>
+        <v>460.0</v>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P3" s="22" t="inlineStr">
@@ -420,7 +420,7 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>GX20190723170954046</t>
+          <t>GX20190731114651906</t>
         </is>
       </c>
       <c r="B4" s="8" t="inlineStr">
@@ -429,20 +429,20 @@
         </is>
       </c>
       <c r="C4" s="9" t="n">
-        <v>43669.714583333334</v>
+        <v>43677.490277777775</v>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>13806685936</t>
+          <t>周锡龙</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>13806685936</t>
+          <t>13566231782</t>
         </is>
       </c>
       <c r="F4" s="12" t="n">
-        <v>43669.71388888889</v>
+        <v>43677.52916666667</v>
       </c>
       <c r="G4" s="13" t="inlineStr">
         <is>
@@ -450,11 +450,11 @@
         </is>
       </c>
       <c r="H4" s="14" t="n">
-        <v>43679.71388888889</v>
+        <v>43679.52916666667</v>
       </c>
       <c r="I4" s="15" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J4" s="16" t="inlineStr">
@@ -469,16 +469,16 @@
       </c>
       <c r="L4" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M4" s="19" t="inlineStr">
         <is>
-          <t>苏A892HU</t>
+          <t>浙C20XM9</t>
         </is>
       </c>
       <c r="N4" s="20" t="n">
-        <v>3247.0</v>
+        <v>99.0</v>
       </c>
       <c r="O4" s="21" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>GX20190723104924553</t>
+          <t>GX20190730121751708</t>
         </is>
       </c>
       <c r="B5" s="8" t="inlineStr">
@@ -508,20 +508,20 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>43669.450694444444</v>
+        <v>43676.51180555556</v>
       </c>
       <c r="D5" s="10" t="inlineStr">
         <is>
-          <t>13867421319</t>
+          <t>战后</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>13867421319</t>
+          <t>13758860712</t>
         </is>
       </c>
       <c r="F5" s="12" t="n">
-        <v>43669.729166666664</v>
+        <v>43677.51111111111</v>
       </c>
       <c r="G5" s="13" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="H5" s="14" t="n">
-        <v>43670.729166666664</v>
+        <v>43678.51111111111</v>
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
       </c>
       <c r="O5" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P5" s="22" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>GX20190719112332042</t>
+          <t>GX20190730114254985</t>
         </is>
       </c>
       <c r="B6" s="8" t="inlineStr">
@@ -587,20 +587,20 @@
         </is>
       </c>
       <c r="C6" s="9" t="n">
-        <v>43665.47430555556</v>
+        <v>43676.4875</v>
       </c>
       <c r="D6" s="10" t="inlineStr">
         <is>
-          <t>18720329475</t>
+          <t>战后</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>18720329475</t>
+          <t>13758860712</t>
         </is>
       </c>
       <c r="F6" s="12" t="n">
-        <v>43665.46597222222</v>
+        <v>43676.729166666664</v>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="H6" s="14" t="n">
-        <v>43666.46597222222</v>
+        <v>43677.729166666664</v>
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="N6" s="20" t="n">
-        <v>28.0</v>
+        <v>58.0</v>
       </c>
       <c r="O6" s="21" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GX20190716100106410</t>
+          <t>GX20190729144440876</t>
         </is>
       </c>
       <c r="B7" s="8" t="inlineStr">
@@ -666,20 +666,20 @@
         </is>
       </c>
       <c r="C7" s="9" t="n">
-        <v>43662.41736111111</v>
+        <v>43675.61388888889</v>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>18720329475</t>
+          <t>13857756222</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>18720329475</t>
+          <t>13857756222</t>
         </is>
       </c>
       <c r="F7" s="12" t="n">
-        <v>43662.40416666667</v>
+        <v>43675.708333333336</v>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
@@ -687,11 +687,11 @@
         </is>
       </c>
       <c r="H7" s="14" t="n">
-        <v>43663.40416666667</v>
+        <v>43677.708333333336</v>
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J7" s="16" t="inlineStr">
@@ -706,20 +706,20 @@
       </c>
       <c r="L7" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞双擎</t>
         </is>
       </c>
       <c r="M7" s="19" t="inlineStr">
         <is>
-          <t>浙C75ZG9</t>
+          <t>苏A567EK</t>
         </is>
       </c>
       <c r="N7" s="20" t="n">
-        <v>258.0</v>
+        <v>149.0</v>
       </c>
       <c r="O7" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P7" s="22" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GX20190713104913213</t>
+          <t>GX20190729142824884</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -745,20 +745,20 @@
         </is>
       </c>
       <c r="C8" s="9" t="n">
-        <v>43659.450694444444</v>
+        <v>43675.60277777778</v>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>13968720082</t>
+          <t>13857756222</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>13968720082</t>
+          <t>13857756222</t>
         </is>
       </c>
       <c r="F8" s="12" t="n">
-        <v>43659.458333333336</v>
+        <v>43675.729166666664</v>
       </c>
       <c r="G8" s="13" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="H8" s="14" t="n">
-        <v>43661.458333333336</v>
+        <v>43677.729166666664</v>
       </c>
       <c r="I8" s="15" t="inlineStr">
         <is>
@@ -794,11 +794,11 @@
         </is>
       </c>
       <c r="N8" s="20" t="n">
-        <v>386.0</v>
+        <v>346.0</v>
       </c>
       <c r="O8" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P8" s="22" t="inlineStr">
@@ -815,7 +815,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GX20190627143827940</t>
+          <t>GX20190727101801544</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -824,32 +824,32 @@
         </is>
       </c>
       <c r="C9" s="9" t="n">
-        <v>43643.60972222222</v>
+        <v>43673.42916666667</v>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>张志雄</t>
+          <t>18720329475</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>13602896858</t>
+          <t>18720329475</t>
         </is>
       </c>
       <c r="F9" s="12" t="n">
-        <v>43643.708333333336</v>
+        <v>43673.520833333336</v>
       </c>
       <c r="G9" s="13" t="inlineStr">
         <is>
-          <t>440103198211134854</t>
+          <t/>
         </is>
       </c>
       <c r="H9" s="14" t="n">
-        <v>43646.708333333336</v>
+        <v>43674.520833333336</v>
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J9" s="16" t="inlineStr">
@@ -869,15 +869,15 @@
       </c>
       <c r="M9" s="19" t="inlineStr">
         <is>
-          <t>浙C75ZG9</t>
+          <t>浙C20XM9</t>
         </is>
       </c>
       <c r="N9" s="20" t="n">
-        <v>724.0</v>
+        <v>78.0</v>
       </c>
       <c r="O9" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P9" s="22" t="inlineStr">
@@ -894,7 +894,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GX20190622152630338</t>
+          <t>GX20190727091223148</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -903,20 +903,20 @@
         </is>
       </c>
       <c r="C10" s="9" t="n">
-        <v>43638.643055555556</v>
+        <v>43673.38333333333</v>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>刘振雷</t>
+          <t>13982614574</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>13676763068</t>
+          <t>13982614574</t>
         </is>
       </c>
       <c r="F10" s="12" t="n">
-        <v>43635.71875</v>
+        <v>43673.729166666664</v>
       </c>
       <c r="G10" s="13" t="inlineStr">
         <is>
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="14" t="n">
-        <v>43641.71875</v>
+        <v>43674.729166666664</v>
       </c>
       <c r="I10" s="15" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J10" s="16" t="inlineStr">
@@ -943,16 +943,16 @@
       </c>
       <c r="L10" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞双擎</t>
         </is>
       </c>
       <c r="M10" s="19" t="inlineStr">
         <is>
-          <t>浙C75ZG9</t>
+          <t>苏A567EK</t>
         </is>
       </c>
       <c r="N10" s="20" t="n">
-        <v>882.0</v>
+        <v>85.0</v>
       </c>
       <c r="O10" s="21" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GX20190618150026148</t>
+          <t>GX20190724150758491</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
@@ -982,20 +982,20 @@
         </is>
       </c>
       <c r="C11" s="9" t="n">
-        <v>43634.625</v>
+        <v>43670.62986111111</v>
       </c>
       <c r="D11" s="10" t="inlineStr">
         <is>
-          <t>刘振雷</t>
+          <t>13867421319</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>13676763068</t>
+          <t>13867421319</t>
         </is>
       </c>
       <c r="F11" s="12" t="n">
-        <v>43634.64861111111</v>
+        <v>43670.62847222222</v>
       </c>
       <c r="G11" s="13" t="inlineStr">
         <is>
@@ -1003,11 +1003,11 @@
         </is>
       </c>
       <c r="H11" s="14" t="n">
-        <v>43641.64861111111</v>
+        <v>43671.62847222222</v>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J11" s="16" t="inlineStr">
@@ -1027,11 +1027,11 @@
       </c>
       <c r="M11" s="19" t="inlineStr">
         <is>
-          <t>浙C709RH</t>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N11" s="20" t="n">
-        <v>1200.0</v>
+        <v>8.0</v>
       </c>
       <c r="O11" s="21" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GX20190606161339694</t>
+          <t>GX20190723170954046</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -1061,20 +1061,20 @@
         </is>
       </c>
       <c r="C12" s="9" t="n">
-        <v>43622.67569444444</v>
+        <v>43669.714583333334</v>
       </c>
       <c r="D12" s="10" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>13806685936</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>148349650697</t>
+          <t>13806685936</t>
         </is>
       </c>
       <c r="F12" s="12" t="n">
-        <v>43622.67569444444</v>
+        <v>43669.71388888889</v>
       </c>
       <c r="G12" s="13" t="inlineStr">
         <is>
@@ -1082,11 +1082,11 @@
         </is>
       </c>
       <c r="H12" s="14" t="n">
-        <v>43626.67569444444</v>
+        <v>43679.71388888889</v>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J12" s="16" t="inlineStr">
@@ -1101,20 +1101,20 @@
       </c>
       <c r="L12" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞双擎</t>
         </is>
       </c>
       <c r="M12" s="19" t="inlineStr">
         <is>
-          <t>浙C709RH</t>
+          <t>苏A892HU</t>
         </is>
       </c>
       <c r="N12" s="20" t="n">
-        <v>1062.0</v>
+        <v>3247.0</v>
       </c>
       <c r="O12" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P12" s="22" t="inlineStr">
@@ -1131,7 +1131,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GX20190605092203567</t>
+          <t>GX20190723104924553</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
@@ -1140,20 +1140,20 @@
         </is>
       </c>
       <c r="C13" s="9" t="n">
-        <v>43621.39027777778</v>
+        <v>43669.450694444444</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>13676442292</t>
+          <t>13867421319</t>
         </is>
       </c>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>13676442292</t>
+          <t>13867421319</t>
         </is>
       </c>
       <c r="F13" s="12" t="n">
-        <v>43621.479166666664</v>
+        <v>43669.729166666664</v>
       </c>
       <c r="G13" s="13" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="H13" s="14" t="n">
-        <v>43622.479166666664</v>
+        <v>43670.729166666664</v>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
@@ -1185,11 +1185,11 @@
       </c>
       <c r="M13" s="19" t="inlineStr">
         <is>
-          <t>浙C709RH</t>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N13" s="20" t="n">
-        <v>208.0</v>
+        <v>8.0</v>
       </c>
       <c r="O13" s="21" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GX20190514162340072</t>
+          <t>GX20190719112332042</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -1219,20 +1219,20 @@
         </is>
       </c>
       <c r="C14" s="9" t="n">
-        <v>43599.68263888889</v>
+        <v>43665.47430555556</v>
       </c>
       <c r="D14" s="10" t="inlineStr">
         <is>
-          <t>18858822186</t>
+          <t>18720329475</t>
         </is>
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>18858822186</t>
+          <t>18720329475</t>
         </is>
       </c>
       <c r="F14" s="12" t="n">
-        <v>43595.68194444444</v>
+        <v>43665.46597222222</v>
       </c>
       <c r="G14" s="13" t="inlineStr">
         <is>
@@ -1240,11 +1240,11 @@
         </is>
       </c>
       <c r="H14" s="14" t="n">
-        <v>43598.68194444444</v>
+        <v>43666.46597222222</v>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J14" s="16" t="inlineStr">
@@ -1268,11 +1268,11 @@
         </is>
       </c>
       <c r="N14" s="20" t="n">
-        <v>749.0</v>
+        <v>28.0</v>
       </c>
       <c r="O14" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P14" s="22" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GX20190514140405079</t>
+          <t>GX20190716100106410</t>
         </is>
       </c>
       <c r="B15" s="8" t="inlineStr">
@@ -1298,28 +1298,28 @@
         </is>
       </c>
       <c r="C15" s="9" t="n">
-        <v>43599.58611111111</v>
+        <v>43662.41736111111</v>
       </c>
       <c r="D15" s="10" t="inlineStr">
         <is>
-          <t>13828462365</t>
+          <t>18720329475</t>
         </is>
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>13828462365</t>
+          <t>18720329475</t>
         </is>
       </c>
       <c r="F15" s="12" t="n">
-        <v>43599.6875</v>
+        <v>43662.40416666667</v>
       </c>
       <c r="G15" s="13" t="inlineStr">
         <is>
-          <t>420624198911031819</t>
+          <t/>
         </is>
       </c>
       <c r="H15" s="14" t="n">
-        <v>43600.6875</v>
+        <v>43663.40416666667</v>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
@@ -1328,12 +1328,12 @@
       </c>
       <c r="J15" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田温州德丰汽车城店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="K15" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州德丰汽车城店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L15" s="18" t="inlineStr">
@@ -1341,13 +1341,13 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M15" s="19" t="inlineStr">
+        <is>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N15" s="20" t="n">
-        <v>188.0</v>
+        <v>258.0</v>
       </c>
       <c r="O15" s="21" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GX20190509112615799</t>
+          <t>GX20190713104913213</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -1377,20 +1377,20 @@
         </is>
       </c>
       <c r="C16" s="9" t="n">
-        <v>43585.47638888889</v>
+        <v>43659.450694444444</v>
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>刘荣开</t>
+          <t>13968720082</t>
         </is>
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>18267731637</t>
+          <t>13968720082</t>
         </is>
       </c>
       <c r="F16" s="12" t="n">
-        <v>43586.475694444445</v>
+        <v>43659.458333333336</v>
       </c>
       <c r="G16" s="13" t="inlineStr">
         <is>
@@ -1398,11 +1398,11 @@
         </is>
       </c>
       <c r="H16" s="14" t="n">
-        <v>43589.475694444445</v>
+        <v>43661.458333333336</v>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J16" s="16" t="inlineStr">
@@ -1412,25 +1412,25 @@
       </c>
       <c r="K16" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州天信灵溪店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L16" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M16" s="19" t="inlineStr">
         <is>
-          <t>浙C54DG9</t>
+          <t>浙C20XM9</t>
         </is>
       </c>
       <c r="N16" s="20" t="n">
-        <v>850.0</v>
+        <v>386.0</v>
       </c>
       <c r="O16" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P16" s="22" t="inlineStr">
@@ -1447,7 +1447,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>GX20190509105214849</t>
+          <t>GX20190627143827940</t>
         </is>
       </c>
       <c r="B17" s="8" t="inlineStr">
@@ -1456,32 +1456,32 @@
         </is>
       </c>
       <c r="C17" s="9" t="n">
-        <v>43585.45277777778</v>
+        <v>43643.60972222222</v>
       </c>
       <c r="D17" s="10" t="inlineStr">
         <is>
-          <t>汤小和</t>
+          <t>张志雄</t>
         </is>
       </c>
       <c r="E17" s="11" t="inlineStr">
         <is>
-          <t>13758860712</t>
+          <t>13602896858</t>
         </is>
       </c>
       <c r="F17" s="12" t="n">
-        <v>43586.450694444444</v>
+        <v>43643.708333333336</v>
       </c>
       <c r="G17" s="13" t="inlineStr">
         <is>
-          <t/>
+          <t>440103198211134854</t>
         </is>
       </c>
       <c r="H17" s="14" t="n">
-        <v>43591.450694444444</v>
+        <v>43646.708333333336</v>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J17" s="16" t="inlineStr">
@@ -1491,21 +1491,21 @@
       </c>
       <c r="K17" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州天信灵溪店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L17" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M17" s="19" t="inlineStr">
         <is>
-          <t>浙C029PC</t>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N17" s="20" t="n">
-        <v>1442.0</v>
+        <v>724.0</v>
       </c>
       <c r="O17" s="21" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>GX20190509113713986</t>
+          <t>GX20190622152630338</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -1535,20 +1535,20 @@
         </is>
       </c>
       <c r="C18" s="9" t="n">
-        <v>43583.48402777778</v>
+        <v>43638.643055555556</v>
       </c>
       <c r="D18" s="10" t="inlineStr">
         <is>
-          <t>刘艳茹</t>
+          <t>刘振雷</t>
         </is>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>13587897620</t>
+          <t>13676763068</t>
         </is>
       </c>
       <c r="F18" s="12" t="n">
-        <v>43584.48333333333</v>
+        <v>43635.71875</v>
       </c>
       <c r="G18" s="13" t="inlineStr">
         <is>
@@ -1556,11 +1556,11 @@
         </is>
       </c>
       <c r="H18" s="14" t="n">
-        <v>43585.48333333333</v>
+        <v>43641.71875</v>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J18" s="16" t="inlineStr">
@@ -1584,11 +1584,11 @@
         </is>
       </c>
       <c r="N18" s="20" t="n">
-        <v>188.0</v>
+        <v>882.0</v>
       </c>
       <c r="O18" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P18" s="22" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>GX20190509120106060</t>
+          <t>GX20190618150026148</t>
         </is>
       </c>
       <c r="B19" s="8" t="inlineStr">
@@ -1614,20 +1614,20 @@
         </is>
       </c>
       <c r="C19" s="9" t="n">
-        <v>43580.50069444445</v>
+        <v>43634.625</v>
       </c>
       <c r="D19" s="10" t="inlineStr">
         <is>
-          <t>陈琼瑶</t>
+          <t>刘振雷</t>
         </is>
       </c>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>15057796253</t>
+          <t>13676763068</t>
         </is>
       </c>
       <c r="F19" s="12" t="n">
-        <v>43581.5</v>
+        <v>43634.64861111111</v>
       </c>
       <c r="G19" s="13" t="inlineStr">
         <is>
@@ -1635,11 +1635,11 @@
         </is>
       </c>
       <c r="H19" s="14" t="n">
-        <v>43582.5</v>
+        <v>43641.64861111111</v>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J19" s="16" t="inlineStr">
@@ -1659,15 +1659,15 @@
       </c>
       <c r="M19" s="19" t="inlineStr">
         <is>
-          <t>浙C75ZG9</t>
+          <t>浙C709RH</t>
         </is>
       </c>
       <c r="N19" s="20" t="n">
-        <v>213.0</v>
+        <v>1200.0</v>
       </c>
       <c r="O19" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P19" s="22" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>GX20190509115053182</t>
+          <t>GX20190606161339694</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
@@ -1693,20 +1693,20 @@
         </is>
       </c>
       <c r="C20" s="9" t="n">
-        <v>43580.493055555555</v>
+        <v>43622.67569444444</v>
       </c>
       <c r="D20" s="10" t="inlineStr">
         <is>
-          <t>周可西</t>
+          <t>张三</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>15888758596</t>
+          <t>148349650697</t>
         </is>
       </c>
       <c r="F20" s="12" t="n">
-        <v>43581.493055555555</v>
+        <v>43622.67569444444</v>
       </c>
       <c r="G20" s="13" t="inlineStr">
         <is>
@@ -1714,11 +1714,11 @@
         </is>
       </c>
       <c r="H20" s="14" t="n">
-        <v>43584.493055555555</v>
+        <v>43626.67569444444</v>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J20" s="16" t="inlineStr">
@@ -1728,25 +1728,25 @@
       </c>
       <c r="K20" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州统邦瓯北店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L20" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M20" s="19" t="inlineStr">
         <is>
-          <t>浙C54DG9</t>
+          <t>浙C709RH</t>
         </is>
       </c>
       <c r="N20" s="20" t="n">
-        <v>758.0</v>
+        <v>1062.0</v>
       </c>
       <c r="O20" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P20" s="22" t="inlineStr">
@@ -1763,7 +1763,7 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>GX20190509113409137</t>
+          <t>GX20190605092203567</t>
         </is>
       </c>
       <c r="B21" s="8" t="inlineStr">
@@ -1772,20 +1772,20 @@
         </is>
       </c>
       <c r="C21" s="9" t="n">
-        <v>43579.481944444444</v>
+        <v>43621.39027777778</v>
       </c>
       <c r="D21" s="10" t="inlineStr">
         <is>
-          <t>蔡国强</t>
+          <t>13676442292</t>
         </is>
       </c>
       <c r="E21" s="11" t="inlineStr">
         <is>
-          <t>15867702880</t>
+          <t>13676442292</t>
         </is>
       </c>
       <c r="F21" s="12" t="n">
-        <v>43580.48125</v>
+        <v>43621.479166666664</v>
       </c>
       <c r="G21" s="13" t="inlineStr">
         <is>
@@ -1793,11 +1793,11 @@
         </is>
       </c>
       <c r="H21" s="14" t="n">
-        <v>43583.48125</v>
+        <v>43622.479166666664</v>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J21" s="16" t="inlineStr">
@@ -1807,25 +1807,25 @@
       </c>
       <c r="K21" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州统邦瓯北店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L21" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M21" s="19" t="inlineStr">
         <is>
-          <t>浙C029PC</t>
+          <t>浙C709RH</t>
         </is>
       </c>
       <c r="N21" s="20" t="n">
-        <v>729.0</v>
+        <v>208.0</v>
       </c>
       <c r="O21" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P21" s="22" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>GX20190510164948427</t>
+          <t>GX20190514162340072</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
@@ -1851,20 +1851,20 @@
         </is>
       </c>
       <c r="C22" s="9" t="n">
-        <v>43578.700694444444</v>
+        <v>43599.68263888889</v>
       </c>
       <c r="D22" s="10" t="inlineStr">
         <is>
-          <t>周天牛</t>
+          <t>18858822186</t>
         </is>
       </c>
       <c r="E22" s="11" t="inlineStr">
         <is>
-          <t>13515877577</t>
+          <t>18858822186</t>
         </is>
       </c>
       <c r="F22" s="12" t="n">
-        <v>43579.7</v>
+        <v>43595.68194444444</v>
       </c>
       <c r="G22" s="13" t="inlineStr">
         <is>
@@ -1872,11 +1872,11 @@
         </is>
       </c>
       <c r="H22" s="14" t="n">
-        <v>43585.7</v>
+        <v>43598.68194444444</v>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J22" s="16" t="inlineStr">
@@ -1891,20 +1891,20 @@
       </c>
       <c r="L22" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t/>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M22" s="19" t="inlineStr">
+        <is>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N22" s="20" t="n">
-        <v>1131.2</v>
+        <v>749.0</v>
       </c>
       <c r="O22" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已完成</t>
         </is>
       </c>
       <c r="P22" s="22" t="inlineStr">
@@ -1921,7 +1921,7 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>GX20190509115640327</t>
+          <t>GX20190514140405079</t>
         </is>
       </c>
       <c r="B23" s="8" t="inlineStr">
@@ -1930,37 +1930,37 @@
         </is>
       </c>
       <c r="C23" s="9" t="n">
-        <v>43578.49722222222</v>
+        <v>43599.58611111111</v>
       </c>
       <c r="D23" s="10" t="inlineStr">
         <is>
-          <t>邓林春</t>
+          <t>13828462365</t>
         </is>
       </c>
       <c r="E23" s="11" t="inlineStr">
         <is>
-          <t>15869410563</t>
+          <t>13828462365</t>
         </is>
       </c>
       <c r="F23" s="12" t="n">
-        <v>43579.49722222222</v>
+        <v>43599.6875</v>
       </c>
       <c r="G23" s="13" t="inlineStr">
         <is>
-          <t/>
+          <t>420624198911031819</t>
         </is>
       </c>
       <c r="H23" s="14" t="n">
-        <v>43582.49722222222</v>
+        <v>43600.6875</v>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J23" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田温州浙通机场路店</t>
+          <t>广汽丰田温州德丰汽车城店</t>
         </is>
       </c>
       <c r="K23" s="17" t="inlineStr">
@@ -1973,17 +1973,17 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M23" s="19" t="inlineStr">
-        <is>
-          <t>浙C709RH</t>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N23" s="20" t="n">
-        <v>699.0</v>
+        <v>188.0</v>
       </c>
       <c r="O23" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P23" s="22" t="inlineStr">
@@ -2000,7 +2000,7 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>GX20190509113216325</t>
+          <t>GX20190509112615799</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
@@ -2009,20 +2009,20 @@
         </is>
       </c>
       <c r="C24" s="9" t="n">
-        <v>43576.48055555556</v>
+        <v>43585.47638888889</v>
       </c>
       <c r="D24" s="10" t="inlineStr">
         <is>
-          <t>郑志敏</t>
+          <t>刘荣开</t>
         </is>
       </c>
       <c r="E24" s="11" t="inlineStr">
         <is>
-          <t>18850334024</t>
+          <t>18267731637</t>
         </is>
       </c>
       <c r="F24" s="12" t="n">
-        <v>43577.47986111111</v>
+        <v>43586.475694444445</v>
       </c>
       <c r="G24" s="13" t="inlineStr">
         <is>
@@ -2030,11 +2030,11 @@
         </is>
       </c>
       <c r="H24" s="14" t="n">
-        <v>43579.47986111111</v>
+        <v>43589.475694444445</v>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J24" s="16" t="inlineStr">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="N24" s="20" t="n">
-        <v>454.0</v>
+        <v>850.0</v>
       </c>
       <c r="O24" s="21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>GX20190509113050044</t>
+          <t>GX20190509105214849</t>
         </is>
       </c>
       <c r="B25" s="8" t="inlineStr">
@@ -2088,20 +2088,20 @@
         </is>
       </c>
       <c r="C25" s="9" t="n">
-        <v>43574.479166666664</v>
+        <v>43585.45277777778</v>
       </c>
       <c r="D25" s="10" t="inlineStr">
         <is>
-          <t>周天牛</t>
+          <t>汤小和</t>
         </is>
       </c>
       <c r="E25" s="11" t="inlineStr">
         <is>
-          <t>13515877577</t>
+          <t>13758860712</t>
         </is>
       </c>
       <c r="F25" s="12" t="n">
-        <v>43575.479166666664</v>
+        <v>43586.450694444444</v>
       </c>
       <c r="G25" s="13" t="inlineStr">
         <is>
@@ -2109,11 +2109,11 @@
         </is>
       </c>
       <c r="H25" s="14" t="n">
-        <v>43578.479166666664</v>
+        <v>43591.450694444444</v>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J25" s="16" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="K25" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田瑞安新盛塘下店</t>
+          <t>广汽丰田温州天信灵溪店</t>
         </is>
       </c>
       <c r="L25" s="18" t="inlineStr">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="N25" s="20" t="n">
-        <v>587.2</v>
+        <v>1442.0</v>
       </c>
       <c r="O25" s="21" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>GX20190509114811920</t>
+          <t>GX20190509113713986</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
@@ -2167,20 +2167,20 @@
         </is>
       </c>
       <c r="C26" s="9" t="n">
-        <v>43573.49166666667</v>
+        <v>43583.48402777778</v>
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>付淼东</t>
+          <t>刘艳茹</t>
         </is>
       </c>
       <c r="E26" s="11" t="inlineStr">
         <is>
-          <t>18658391632</t>
+          <t>13587897620</t>
         </is>
       </c>
       <c r="F26" s="12" t="n">
-        <v>43574.49097222222</v>
+        <v>43584.48333333333</v>
       </c>
       <c r="G26" s="13" t="inlineStr">
         <is>
@@ -2188,11 +2188,11 @@
         </is>
       </c>
       <c r="H26" s="14" t="n">
-        <v>43577.49097222222</v>
+        <v>43585.48333333333</v>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J26" s="16" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="K26" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田瑞安新盛塘下店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L26" s="18" t="inlineStr">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="N26" s="20" t="n">
-        <v>599.0</v>
+        <v>188.0</v>
       </c>
       <c r="O26" s="21" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>GX20190509115906557</t>
+          <t>GX20190509120106060</t>
         </is>
       </c>
       <c r="B27" s="8" t="inlineStr">
@@ -2246,20 +2246,20 @@
         </is>
       </c>
       <c r="C27" s="9" t="n">
-        <v>43572.49930555555</v>
+        <v>43580.50069444445</v>
       </c>
       <c r="D27" s="10" t="inlineStr">
         <is>
-          <t>胡章淇</t>
+          <t>陈琼瑶</t>
         </is>
       </c>
       <c r="E27" s="11" t="inlineStr">
         <is>
-          <t>1507253787</t>
+          <t>15057796253</t>
         </is>
       </c>
       <c r="F27" s="12" t="n">
-        <v>43573.498611111114</v>
+        <v>43581.5</v>
       </c>
       <c r="G27" s="13" t="inlineStr">
         <is>
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="H27" s="14" t="n">
-        <v>43577.498611111114</v>
+        <v>43582.5</v>
       </c>
       <c r="I27" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J27" s="16" t="inlineStr">
@@ -2281,25 +2281,25 @@
       </c>
       <c r="K27" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州统邦瓯北店</t>
+          <t>广汽丰田温州浙通机场路店</t>
         </is>
       </c>
       <c r="L27" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t/>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M27" s="19" t="inlineStr">
+        <is>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N27" s="20" t="n">
-        <v>975.0</v>
+        <v>213.0</v>
       </c>
       <c r="O27" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已完成</t>
         </is>
       </c>
       <c r="P27" s="22" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>GX20190509113619345</t>
+          <t>GX20190509115053182</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
@@ -2325,20 +2325,20 @@
         </is>
       </c>
       <c r="C28" s="9" t="n">
-        <v>43572.48333333333</v>
+        <v>43580.493055555555</v>
       </c>
       <c r="D28" s="10" t="inlineStr">
         <is>
-          <t>方一鸣</t>
+          <t>周可西</t>
         </is>
       </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
-          <t>13695742635</t>
+          <t>15888758596</t>
         </is>
       </c>
       <c r="F28" s="12" t="n">
-        <v>43573.48263888889</v>
+        <v>43581.493055555555</v>
       </c>
       <c r="G28" s="13" t="inlineStr">
         <is>
@@ -2346,11 +2346,11 @@
         </is>
       </c>
       <c r="H28" s="14" t="n">
-        <v>43577.48263888889</v>
+        <v>43584.493055555555</v>
       </c>
       <c r="I28" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J28" s="16" t="inlineStr">
@@ -2360,21 +2360,21 @@
       </c>
       <c r="K28" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州浙通机场路店</t>
+          <t>广汽丰田温州统邦瓯北店</t>
         </is>
       </c>
       <c r="L28" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M28" s="19" t="inlineStr">
         <is>
-          <t>浙C20XM9</t>
+          <t>浙C54DG9</t>
         </is>
       </c>
       <c r="N28" s="20" t="n">
-        <v>767.0</v>
+        <v>758.0</v>
       </c>
       <c r="O28" s="21" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>GX20190509115459333</t>
+          <t>GX20190509113409137</t>
         </is>
       </c>
       <c r="B29" s="8" t="inlineStr">
@@ -2404,20 +2404,20 @@
         </is>
       </c>
       <c r="C29" s="9" t="n">
-        <v>43571.495833333334</v>
+        <v>43579.481944444444</v>
       </c>
       <c r="D29" s="10" t="inlineStr">
         <is>
-          <t>谢托</t>
+          <t>蔡国强</t>
         </is>
       </c>
       <c r="E29" s="11" t="inlineStr">
         <is>
-          <t>13676417625</t>
+          <t>15867702880</t>
         </is>
       </c>
       <c r="F29" s="12" t="n">
-        <v>43572.495833333334</v>
+        <v>43580.48125</v>
       </c>
       <c r="G29" s="13" t="inlineStr">
         <is>
@@ -2425,11 +2425,11 @@
         </is>
       </c>
       <c r="H29" s="14" t="n">
-        <v>43577.495833333334</v>
+        <v>43583.48125</v>
       </c>
       <c r="I29" s="15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J29" s="16" t="inlineStr">
@@ -2439,21 +2439,21 @@
       </c>
       <c r="K29" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州天信灵溪店</t>
+          <t>广汽丰田温州统邦瓯北店</t>
         </is>
       </c>
       <c r="L29" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M29" s="19" t="inlineStr">
         <is>
-          <t>浙C709RH</t>
+          <t>浙C029PC</t>
         </is>
       </c>
       <c r="N29" s="20" t="n">
-        <v>935.0</v>
+        <v>729.0</v>
       </c>
       <c r="O29" s="21" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>GX20190509112728686</t>
+          <t>GX20190510164948427</t>
         </is>
       </c>
       <c r="B30" s="8" t="inlineStr">
@@ -2483,20 +2483,20 @@
         </is>
       </c>
       <c r="C30" s="9" t="n">
-        <v>43571.47708333333</v>
+        <v>43578.700694444444</v>
       </c>
       <c r="D30" s="10" t="inlineStr">
         <is>
-          <t>刘克文</t>
+          <t>周天牛</t>
         </is>
       </c>
       <c r="E30" s="11" t="inlineStr">
         <is>
-          <t>13676402545</t>
+          <t>13515877577</t>
         </is>
       </c>
       <c r="F30" s="12" t="n">
-        <v>43572.47638888889</v>
+        <v>43579.7</v>
       </c>
       <c r="G30" s="13" t="inlineStr">
         <is>
@@ -2504,11 +2504,11 @@
         </is>
       </c>
       <c r="H30" s="14" t="n">
-        <v>43574.47638888889</v>
+        <v>43585.7</v>
       </c>
       <c r="I30" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J30" s="16" t="inlineStr">
@@ -2526,17 +2526,17 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M30" s="19" t="inlineStr">
-        <is>
-          <t>浙C029PC</t>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N30" s="20" t="n">
-        <v>454.0</v>
+        <v>1131.2</v>
       </c>
       <c r="O30" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P30" s="22" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>GX20190509114648749</t>
+          <t>GX20190509115640327</t>
         </is>
       </c>
       <c r="B31" s="8" t="inlineStr">
@@ -2562,20 +2562,20 @@
         </is>
       </c>
       <c r="C31" s="9" t="n">
-        <v>43569.490277777775</v>
+        <v>43578.49722222222</v>
       </c>
       <c r="D31" s="10" t="inlineStr">
         <is>
-          <t>周兴林</t>
+          <t>邓林春</t>
         </is>
       </c>
       <c r="E31" s="11" t="inlineStr">
         <is>
-          <t>13767359771</t>
+          <t>15869410563</t>
         </is>
       </c>
       <c r="F31" s="12" t="n">
-        <v>43570.490277777775</v>
+        <v>43579.49722222222</v>
       </c>
       <c r="G31" s="13" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="H31" s="14" t="n">
-        <v>43573.490277777775</v>
+        <v>43582.49722222222</v>
       </c>
       <c r="I31" s="15" t="inlineStr">
         <is>
@@ -2597,21 +2597,21 @@
       </c>
       <c r="K31" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州浙通机场路店</t>
+          <t>广汽丰田温州德丰汽车城店</t>
         </is>
       </c>
       <c r="L31" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M31" s="19" t="inlineStr">
         <is>
-          <t>浙C54DG9</t>
+          <t>浙C709RH</t>
         </is>
       </c>
       <c r="N31" s="20" t="n">
-        <v>821.0</v>
+        <v>699.0</v>
       </c>
       <c r="O31" s="21" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>GX20190509114558609</t>
+          <t>GX20190509113216325</t>
         </is>
       </c>
       <c r="B32" s="8" t="inlineStr">
@@ -2641,20 +2641,20 @@
         </is>
       </c>
       <c r="C32" s="9" t="n">
-        <v>43566.489583333336</v>
+        <v>43576.48055555556</v>
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>陈东明</t>
+          <t>郑志敏</t>
         </is>
       </c>
       <c r="E32" s="11" t="inlineStr">
         <is>
-          <t>18875819861</t>
+          <t>18850334024</t>
         </is>
       </c>
       <c r="F32" s="12" t="n">
-        <v>43567.489583333336</v>
+        <v>43577.47986111111</v>
       </c>
       <c r="G32" s="13" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="H32" s="14" t="n">
-        <v>43569.489583333336</v>
+        <v>43579.47986111111</v>
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="K32" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州统邦瓯北店</t>
+          <t>广汽丰田温州天信灵溪店</t>
         </is>
       </c>
       <c r="L32" s="18" t="inlineStr">
@@ -2686,11 +2686,11 @@
       </c>
       <c r="M32" s="19" t="inlineStr">
         <is>
-          <t>浙C029PC</t>
+          <t>浙C54DG9</t>
         </is>
       </c>
       <c r="N32" s="20" t="n">
-        <v>512.0</v>
+        <v>454.0</v>
       </c>
       <c r="O32" s="21" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>GX20190509115758270</t>
+          <t>GX20190509113050044</t>
         </is>
       </c>
       <c r="B33" s="8" t="inlineStr">
@@ -2720,20 +2720,20 @@
         </is>
       </c>
       <c r="C33" s="9" t="n">
-        <v>43564.49791666667</v>
+        <v>43574.479166666664</v>
       </c>
       <c r="D33" s="10" t="inlineStr">
         <is>
-          <t>王丹</t>
+          <t>周天牛</t>
         </is>
       </c>
       <c r="E33" s="11" t="inlineStr">
         <is>
-          <t>15057766695</t>
+          <t>13515877577</t>
         </is>
       </c>
       <c r="F33" s="12" t="n">
-        <v>43565.49791666667</v>
+        <v>43575.479166666664</v>
       </c>
       <c r="G33" s="13" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="H33" s="14" t="n">
-        <v>43568.49791666667</v>
+        <v>43578.479166666664</v>
       </c>
       <c r="I33" s="15" t="inlineStr">
         <is>
@@ -2755,21 +2755,21 @@
       </c>
       <c r="K33" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田温州天信灵溪店</t>
+          <t>广汽丰田瑞安新盛塘下店</t>
         </is>
       </c>
       <c r="L33" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M33" s="19" t="inlineStr">
         <is>
-          <t>浙C75ZG9</t>
+          <t>浙C029PC</t>
         </is>
       </c>
       <c r="N33" s="20" t="n">
-        <v>549.0</v>
+        <v>587.2</v>
       </c>
       <c r="O33" s="21" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
         <is>
-          <t>GX20190509111508247</t>
+          <t>GX20190509114811920</t>
         </is>
       </c>
       <c r="B34" s="8" t="inlineStr">
@@ -2799,20 +2799,20 @@
         </is>
       </c>
       <c r="C34" s="9" t="n">
-        <v>43564.46875</v>
+        <v>43573.49166666667</v>
       </c>
       <c r="D34" s="10" t="inlineStr">
         <is>
-          <t>方一鸣</t>
+          <t>付淼东</t>
         </is>
       </c>
       <c r="E34" s="11" t="inlineStr">
         <is>
-          <t>13695742635</t>
+          <t>18658391632</t>
         </is>
       </c>
       <c r="F34" s="12" t="n">
-        <v>43565.46805555555</v>
+        <v>43574.49097222222</v>
       </c>
       <c r="G34" s="13" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="H34" s="14" t="n">
-        <v>43568.46805555555</v>
+        <v>43577.49097222222</v>
       </c>
       <c r="I34" s="15" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="K34" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田乐清广通乐成店</t>
+          <t>广汽丰田瑞安新盛塘下店</t>
         </is>
       </c>
       <c r="L34" s="18" t="inlineStr">
@@ -2844,11 +2844,11 @@
       </c>
       <c r="M34" s="19" t="inlineStr">
         <is>
-          <t>浙C20XM9</t>
+          <t>浙C75ZG9</t>
         </is>
       </c>
       <c r="N34" s="20" t="n">
-        <v>549.0</v>
+        <v>599.0</v>
       </c>
       <c r="O34" s="21" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
-          <t>GX20190509112847718</t>
+          <t>GX20190509115906557</t>
         </is>
       </c>
       <c r="B35" s="8" t="inlineStr">
@@ -2878,20 +2878,20 @@
         </is>
       </c>
       <c r="C35" s="9" t="n">
-        <v>43563.47777777778</v>
+        <v>43572.49930555555</v>
       </c>
       <c r="D35" s="10" t="inlineStr">
         <is>
-          <t>池建进</t>
+          <t>胡章淇</t>
         </is>
       </c>
       <c r="E35" s="11" t="inlineStr">
         <is>
-          <t>15158585971</t>
+          <t>1507253787</t>
         </is>
       </c>
       <c r="F35" s="12" t="n">
-        <v>43564.47777777778</v>
+        <v>43573.498611111114</v>
       </c>
       <c r="G35" s="13" t="inlineStr">
         <is>
@@ -2899,11 +2899,11 @@
         </is>
       </c>
       <c r="H35" s="14" t="n">
-        <v>43567.47777777778</v>
+        <v>43577.498611111114</v>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J35" s="16" t="inlineStr">
@@ -2918,20 +2918,20 @@
       </c>
       <c r="L35" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M35" s="19" t="inlineStr">
-        <is>
-          <t>浙C709RH</t>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N35" s="20" t="n">
-        <v>674.0</v>
+        <v>975.0</v>
       </c>
       <c r="O35" s="21" t="inlineStr">
         <is>
-          <t>已完成</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P35" s="22" t="inlineStr">
@@ -2948,7 +2948,7 @@
     <row r="36">
       <c r="A36" s="7" t="inlineStr">
         <is>
-          <t>GX20190509113313059</t>
+          <t>GX20190509113619345</t>
         </is>
       </c>
       <c r="B36" s="8" t="inlineStr">
@@ -2957,20 +2957,20 @@
         </is>
       </c>
       <c r="C36" s="9" t="n">
-        <v>43558.48125</v>
+        <v>43572.48333333333</v>
       </c>
       <c r="D36" s="10" t="inlineStr">
         <is>
-          <t>钟优亮</t>
+          <t>方一鸣</t>
         </is>
       </c>
       <c r="E36" s="11" t="inlineStr">
         <is>
-          <t>18334086042</t>
+          <t>13695742635</t>
         </is>
       </c>
       <c r="F36" s="12" t="n">
-        <v>43559.48055555556</v>
+        <v>43573.48263888889</v>
       </c>
       <c r="G36" s="13" t="inlineStr">
         <is>
@@ -2978,11 +2978,11 @@
         </is>
       </c>
       <c r="H36" s="14" t="n">
-        <v>43562.48055555556</v>
+        <v>43577.48263888889</v>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J36" s="16" t="inlineStr">
@@ -2997,16 +2997,16 @@
       </c>
       <c r="L36" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M36" s="19" t="inlineStr">
         <is>
-          <t>浙C54DG9</t>
+          <t>浙C20XM9</t>
         </is>
       </c>
       <c r="N36" s="20" t="n">
-        <v>729.0</v>
+        <v>767.0</v>
       </c>
       <c r="O36" s="21" t="inlineStr">
         <is>
@@ -3027,77 +3027,709 @@
     <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
+          <t>GX20190509115459333</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>43571.495833333334</v>
+      </c>
+      <c r="D37" s="10" t="inlineStr">
+        <is>
+          <t>谢托</t>
+        </is>
+      </c>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>13676417625</t>
+        </is>
+      </c>
+      <c r="F37" s="12" t="n">
+        <v>43572.495833333334</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H37" s="14" t="n">
+        <v>43577.495833333334</v>
+      </c>
+      <c r="I37" s="15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J37" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K37" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田温州天信灵溪店</t>
+        </is>
+      </c>
+      <c r="L37" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M37" s="19" t="inlineStr">
+        <is>
+          <t>浙C709RH</t>
+        </is>
+      </c>
+      <c r="N37" s="20" t="n">
+        <v>935.0</v>
+      </c>
+      <c r="O37" s="21" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="P37" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q37" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>GX20190509112728686</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>43571.47708333333</v>
+      </c>
+      <c r="D38" s="10" t="inlineStr">
+        <is>
+          <t>刘克文</t>
+        </is>
+      </c>
+      <c r="E38" s="11" t="inlineStr">
+        <is>
+          <t>13676402545</t>
+        </is>
+      </c>
+      <c r="F38" s="12" t="n">
+        <v>43572.47638888889</v>
+      </c>
+      <c r="G38" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>43574.47638888889</v>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J38" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K38" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="L38" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M38" s="19" t="inlineStr">
+        <is>
+          <t>浙C029PC</t>
+        </is>
+      </c>
+      <c r="N38" s="20" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="O38" s="21" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="P38" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q38" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>GX20190509114648749</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="n">
+        <v>43569.490277777775</v>
+      </c>
+      <c r="D39" s="10" t="inlineStr">
+        <is>
+          <t>周兴林</t>
+        </is>
+      </c>
+      <c r="E39" s="11" t="inlineStr">
+        <is>
+          <t>13767359771</t>
+        </is>
+      </c>
+      <c r="F39" s="12" t="n">
+        <v>43570.490277777775</v>
+      </c>
+      <c r="G39" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H39" s="14" t="n">
+        <v>43573.490277777775</v>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J39" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K39" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="L39" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M39" s="19" t="inlineStr">
+        <is>
+          <t>浙C54DG9</t>
+        </is>
+      </c>
+      <c r="N39" s="20" t="n">
+        <v>821.0</v>
+      </c>
+      <c r="O39" s="21" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="P39" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q39" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t>GX20190509114558609</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="n">
+        <v>43566.489583333336</v>
+      </c>
+      <c r="D40" s="10" t="inlineStr">
+        <is>
+          <t>陈东明</t>
+        </is>
+      </c>
+      <c r="E40" s="11" t="inlineStr">
+        <is>
+          <t>18875819861</t>
+        </is>
+      </c>
+      <c r="F40" s="12" t="n">
+        <v>43567.489583333336</v>
+      </c>
+      <c r="G40" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H40" s="14" t="n">
+        <v>43569.489583333336</v>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J40" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K40" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田温州统邦瓯北店</t>
+        </is>
+      </c>
+      <c r="L40" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M40" s="19" t="inlineStr">
+        <is>
+          <t>浙C029PC</t>
+        </is>
+      </c>
+      <c r="N40" s="20" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="O40" s="21" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="P40" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q40" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>GX20190509115758270</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="n">
+        <v>43564.49791666667</v>
+      </c>
+      <c r="D41" s="10" t="inlineStr">
+        <is>
+          <t>王丹</t>
+        </is>
+      </c>
+      <c r="E41" s="11" t="inlineStr">
+        <is>
+          <t>15057766695</t>
+        </is>
+      </c>
+      <c r="F41" s="12" t="n">
+        <v>43565.49791666667</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H41" s="14" t="n">
+        <v>43568.49791666667</v>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J41" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K41" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田温州天信灵溪店</t>
+        </is>
+      </c>
+      <c r="L41" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M41" s="19" t="inlineStr">
+        <is>
+          <t>浙C75ZG9</t>
+        </is>
+      </c>
+      <c r="N41" s="20" t="n">
+        <v>549.0</v>
+      </c>
+      <c r="O41" s="21" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="P41" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q41" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>GX20190509111508247</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="n">
+        <v>43564.46875</v>
+      </c>
+      <c r="D42" s="10" t="inlineStr">
+        <is>
+          <t>方一鸣</t>
+        </is>
+      </c>
+      <c r="E42" s="11" t="inlineStr">
+        <is>
+          <t>13695742635</t>
+        </is>
+      </c>
+      <c r="F42" s="12" t="n">
+        <v>43565.46805555555</v>
+      </c>
+      <c r="G42" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H42" s="14" t="n">
+        <v>43568.46805555555</v>
+      </c>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J42" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K42" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田乐清广通乐成店</t>
+        </is>
+      </c>
+      <c r="L42" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M42" s="19" t="inlineStr">
+        <is>
+          <t>浙C20XM9</t>
+        </is>
+      </c>
+      <c r="N42" s="20" t="n">
+        <v>549.0</v>
+      </c>
+      <c r="O42" s="21" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="P42" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q42" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>GX20190509112847718</t>
+        </is>
+      </c>
+      <c r="B43" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="n">
+        <v>43563.47777777778</v>
+      </c>
+      <c r="D43" s="10" t="inlineStr">
+        <is>
+          <t>池建进</t>
+        </is>
+      </c>
+      <c r="E43" s="11" t="inlineStr">
+        <is>
+          <t>15158585971</t>
+        </is>
+      </c>
+      <c r="F43" s="12" t="n">
+        <v>43564.47777777778</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H43" s="14" t="n">
+        <v>43567.47777777778</v>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J43" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K43" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田温州统邦瓯北店</t>
+        </is>
+      </c>
+      <c r="L43" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M43" s="19" t="inlineStr">
+        <is>
+          <t>浙C709RH</t>
+        </is>
+      </c>
+      <c r="N43" s="20" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="O43" s="21" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="P43" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q43" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>GX20190509113313059</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="n">
+        <v>43558.48125</v>
+      </c>
+      <c r="D44" s="10" t="inlineStr">
+        <is>
+          <t>钟优亮</t>
+        </is>
+      </c>
+      <c r="E44" s="11" t="inlineStr">
+        <is>
+          <t>18334086042</t>
+        </is>
+      </c>
+      <c r="F44" s="12" t="n">
+        <v>43559.48055555556</v>
+      </c>
+      <c r="G44" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H44" s="14" t="n">
+        <v>43562.48055555556</v>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J44" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K44" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="L44" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M44" s="19" t="inlineStr">
+        <is>
+          <t>浙C54DG9</t>
+        </is>
+      </c>
+      <c r="N44" s="20" t="n">
+        <v>729.0</v>
+      </c>
+      <c r="O44" s="21" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="P44" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q44" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
           <t>GX20190509105513805</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>短租</t>
-        </is>
-      </c>
-      <c r="C37" s="9" t="n">
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="n">
         <v>43556.45486111111</v>
       </c>
-      <c r="D37" s="10" t="inlineStr">
+      <c r="D45" s="10" t="inlineStr">
         <is>
           <t>程健峰</t>
         </is>
       </c>
-      <c r="E37" s="11" t="inlineStr">
+      <c r="E45" s="11" t="inlineStr">
         <is>
           <t>18958895570</t>
         </is>
       </c>
-      <c r="F37" s="12" t="n">
+      <c r="F45" s="12" t="n">
         <v>43557.45416666667</v>
       </c>
-      <c r="G37" s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H37" s="14" t="n">
+      <c r="G45" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H45" s="14" t="n">
         <v>43559.45416666667</v>
       </c>
-      <c r="I37" s="15" t="inlineStr">
+      <c r="I45" s="15" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="J37" s="16" t="inlineStr">
-        <is>
-          <t>广汽丰田温州浙通机场路店</t>
-        </is>
-      </c>
-      <c r="K37" s="17" t="inlineStr">
+      <c r="J45" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田温州浙通机场路店</t>
+        </is>
+      </c>
+      <c r="K45" s="17" t="inlineStr">
         <is>
           <t>广汽丰田温州天信灵溪店</t>
         </is>
       </c>
-      <c r="L37" s="18" t="inlineStr">
+      <c r="L45" s="18" t="inlineStr">
         <is>
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N37" s="20" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N45" s="20" t="n">
         <v>454.0</v>
       </c>
-      <c r="O37" s="21" t="inlineStr">
+      <c r="O45" s="21" t="inlineStr">
         <is>
           <t>已取消</t>
         </is>
       </c>
-      <c r="P37" s="22" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q37" s="23" t="inlineStr">
+      <c r="P45" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q45" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
